--- a/medicine/Psychotrope/Bootlegger/Bootlegger.xlsx
+++ b/medicine/Psychotrope/Bootlegger/Bootlegger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un bootlegger[1],[2],[3] est un contrebandier d'alcool (bière, rhum, vin et spiritueux) à l'époque de la prohibition. Il s'agit d'un mot d'origine américaine qui signifie « l’homme qui cache une bouteille dans sa botte »[1],[2],[3]. Apparu pendant la guerre de Sécession[4], le terme est à nouveau utilisé pour désigner les contrebandiers de la période de la prohibition[1],[2],[3], qui s'est instaurée aux États-Unis et au Canada entre les années 1917 et 1935. Les bouteilles pouvaient alors avoir une forme recourbée pour mieux s'insérer dans les bottes[réf. nécessaire].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un bootlegger est un contrebandier d'alcool (bière, rhum, vin et spiritueux) à l'époque de la prohibition. Il s'agit d'un mot d'origine américaine qui signifie « l’homme qui cache une bouteille dans sa botte ». Apparu pendant la guerre de Sécession, le terme est à nouveau utilisé pour désigner les contrebandiers de la période de la prohibition qui s'est instaurée aux États-Unis et au Canada entre les années 1917 et 1935. Les bouteilles pouvaient alors avoir une forme recourbée pour mieux s'insérer dans les bottes[réf. nécessaire].
 Le terme reste employé en Acadie.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La prohibition a fait les beaux jours des distillateurs clandestins, des petits passeurs transfrontaliers, des revendeurs, des débits de boisson écoulant des alcools souvent frelatés (les speakeasies), des capitaines de navires impliqués dans le transport des liquides interdits et, surtout, des gangs aux racines mafieuses qui contrôlaient tous ces réseaux, de New York à Chicago, pour empocher de juteux bénéfices au prix de règlements de comptes parfois sanglants.
 Au cours de cette quinzaine d'années, les trafics d'importation d'alcool furent marqués par quelques faits saillants :
@@ -545,7 +559,9 @@
           <t>De nos jours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'il n'y ait plus de prohibition aux États-Unis, le bootlegger fait toujours partie du paysage en Acadie. De nos jours[Quand ?], ce terme désigne quelqu'un qui vend de l'alcool à son domicile sans permis. Plusieurs groupes de musique acadiens en ont parlé, dont Cayouche (Le Bootlegger, Goo'Day, Le Frigidaire de mon chum, La Réponse, L'Alcool au volant), 1755 (Le Monde qu'on connaît), Suroît (l'album Bootleg) et Radio Radio (Rum Runner).
 L'équipe de base-ball d'Argancy (Moselle) s'appelle « Les Bootleggers ».
